--- a/WebBrowser/smzdm.xlsx
+++ b/WebBrowser/smzdm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\smzdm\WebBrowser\bin\Release\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\smzdm\WebBrowser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22804CE-A1F0-4D5E-935A-29FA22F14CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F613E21F-1C96-4B4C-BFDE-114A751310EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smzdm" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="97">
   <si>
     <t>phone</t>
   </si>
@@ -271,26 +271,53 @@
     <t>smzdm_share</t>
   </si>
   <si>
-    <t>50-56</t>
-  </si>
-  <si>
     <t>computers</t>
   </si>
   <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>BaoLiaoLeft</t>
+  </si>
+  <si>
+    <t>55-60</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>smzdm006@mail.com</t>
+  </si>
+  <si>
+    <t>48-49</t>
+  </si>
+  <si>
+    <t>85-90</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>60-65</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>45-48</t>
+  </si>
+  <si>
+    <t>60-66</t>
+  </si>
+  <si>
     <t>r</t>
-  </si>
-  <si>
-    <t>45-49</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +454,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -755,7 +790,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -798,13 +833,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -838,6 +875,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -849,6 +887,16 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -869,16 +917,6 @@
           <color rgb="FF9C0006"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1207,29 +1245,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="8" width="36.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="13.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,28 +1289,34 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>18604568194</v>
       </c>
@@ -1287,19 +1333,37 @@
         <v>11</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>16571296540</v>
       </c>
@@ -1316,22 +1380,37 @@
         <v>16</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1345,22 +1424,37 @@
         <v>21</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1374,22 +1468,37 @@
         <v>23</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1405,20 +1514,20 @@
       <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>15051954021</v>
       </c>
@@ -1429,19 +1538,34 @@
         <v>26</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1455,22 +1579,37 @@
         <v>29</v>
       </c>
       <c r="F8" s="1">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="M8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>18646132274</v>
       </c>
@@ -1489,29 +1628,23 @@
       <c r="F9" s="1">
         <v>5</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>15601157998</v>
       </c>
@@ -1521,17 +1654,17 @@
       <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>18545217785</v>
       </c>
@@ -1547,20 +1680,29 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1</v>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="M11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>15901115988</v>
       </c>
@@ -1570,17 +1712,17 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13144567481</v>
       </c>
@@ -1596,29 +1738,23 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>18612854599</v>
       </c>
@@ -1631,26 +1767,20 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>17109324121</v>
       </c>
@@ -1669,20 +1799,20 @@
       <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>17109324209</v>
       </c>
@@ -1698,20 +1828,20 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17109324122</v>
       </c>
@@ -1730,20 +1860,20 @@
       <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1" t="s">
+      <c r="I17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17109324206</v>
       </c>
@@ -1762,20 +1892,20 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="1">
-        <v>1</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="I18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>13263543443</v>
       </c>
@@ -1794,20 +1924,20 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1" t="s">
+      <c r="I19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18646100441</v>
       </c>
@@ -1826,20 +1956,20 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1" t="s">
+      <c r="I20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16739465448</v>
       </c>
@@ -1852,54 +1982,54 @@
       <c r="E21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1</v>
-      </c>
-      <c r="M21" s="1" t="s">
+      <c r="I21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>13031043509</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>13584306628</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>18866478544</v>
       </c>
@@ -1915,37 +2045,37 @@
       <c r="E24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="1">
-        <v>1</v>
-      </c>
-      <c r="M24" s="1" t="s">
+      <c r="I24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>19920198790</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>17134658143</v>
       </c>
@@ -1958,37 +2088,38 @@
       <c r="D26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="1">
-        <v>1</v>
-      </c>
-      <c r="M26" s="1" t="s">
+      <c r="I26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>17134659293</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+      <c r="I27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>17134659387</v>
       </c>
@@ -2001,121 +2132,127 @@
       <c r="D28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>17134658101</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>17048774575</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="C30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>16535842201</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>16535842245</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>16535842204</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>16535842210</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="1">
+      <c r="J34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="I1 H9:I9 H1:H1048576 I13:I14">
+  <conditionalFormatting sqref="K1 J9:K9 K13:K14 J1:J1048576">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -2123,15 +2260,18 @@
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"d"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"r"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"d"</formula>
-    </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C30" r:id="rId1" xr:uid="{E43BCF13-163D-49D4-9CA2-12750B5C2D59}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/WebBrowser/smzdm.xlsx
+++ b/WebBrowser/smzdm.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\smzdm\WebBrowser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F613E21F-1C96-4B4C-BFDE-114A751310EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F950F656-9040-42E6-98C9-FD1DE19B3B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smzdm" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="128">
   <si>
     <t>phone</t>
   </si>
@@ -58,9 +68,6 @@
     <t>wang de nv ren</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>deals.txt</t>
   </si>
   <si>
@@ -280,37 +287,133 @@
     <t>BaoLiaoLeft</t>
   </si>
   <si>
-    <t>55-60</t>
-  </si>
-  <si>
     <t>sports</t>
   </si>
   <si>
     <t>smzdm006@mail.com</t>
   </si>
   <si>
-    <t>48-49</t>
-  </si>
-  <si>
-    <t>85-90</t>
-  </si>
-  <si>
     <t>u</t>
   </si>
   <si>
-    <t>60-65</t>
-  </si>
-  <si>
-    <t>65-74</t>
-  </si>
-  <si>
-    <t>45-48</t>
-  </si>
-  <si>
-    <t>60-66</t>
+    <t>y</t>
+  </si>
+  <si>
+    <t>200-209</t>
+  </si>
+  <si>
+    <t>95-105</t>
+  </si>
+  <si>
+    <t>suning</t>
+  </si>
+  <si>
+    <t>50-60</t>
+  </si>
+  <si>
+    <t>100-101</t>
+  </si>
+  <si>
+    <t>106-114</t>
+  </si>
+  <si>
+    <t>200-210</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>167-174</t>
+  </si>
+  <si>
+    <t>171-180</t>
+  </si>
+  <si>
+    <t>Trader Joe</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Kaisa</t>
+  </si>
+  <si>
+    <t>Xayah</t>
+  </si>
+  <si>
+    <t>Kalista</t>
+  </si>
+  <si>
+    <t>Leona</t>
+  </si>
+  <si>
+    <t>Shyvana</t>
+  </si>
+  <si>
+    <t>Yasuo</t>
+  </si>
+  <si>
+    <t>230-240</t>
+  </si>
+  <si>
+    <t>230-236</t>
+  </si>
+  <si>
+    <t>231-240</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>220-230</t>
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>270-280</t>
+  </si>
+  <si>
+    <t>ZedTheBlade</t>
+  </si>
+  <si>
+    <t>291-300</t>
+  </si>
+  <si>
+    <t>60-70</t>
+  </si>
+  <si>
+    <t>381-390</t>
+  </si>
+  <si>
+    <t>380-390</t>
+  </si>
+  <si>
+    <t>55-65</t>
+  </si>
+  <si>
+    <t>61-66</t>
+  </si>
+  <si>
+    <t>66-72</t>
+  </si>
+  <si>
+    <t>67-73</t>
+  </si>
+  <si>
+    <t>73-80</t>
+  </si>
+  <si>
+    <t>63-66</t>
+  </si>
+  <si>
+    <t>75-80</t>
+  </si>
+  <si>
+    <t>81-86</t>
+  </si>
+  <si>
+    <t>81-88</t>
   </si>
 </sst>
 </file>
@@ -1248,17 +1351,19 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="36.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="37.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" customWidth="1"/>
@@ -1289,28 +1394,28 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>7</v>
@@ -1333,7 +1438,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -1342,25 +1447,25 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N2" s="1">
         <v>1</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1371,87 +1476,87 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N3" s="1">
         <v>1</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1459,43 +1564,43 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1503,28 +1608,43 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1535,31 +1655,31 @@
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1978</v>
+      </c>
+      <c r="H7" s="1">
         <v>11</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>8</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
@@ -1567,46 +1687,46 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
       </c>
       <c r="G8" s="1">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1614,34 +1734,46 @@
         <v>18646132274</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F9" s="1">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="G9" s="1">
+        <v>73</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="K9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="M9" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="N9" s="1">
         <v>1</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1649,16 +1781,34 @@
         <v>15601157998</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="F10" s="1">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1">
+        <v>223</v>
+      </c>
+      <c r="H10" s="1">
+        <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
+      </c>
+      <c r="K10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
@@ -1669,37 +1819,40 @@
         <v>18545217785</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
       <c r="I11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1707,16 +1860,28 @@
         <v>15901115988</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
       <c r="I12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
@@ -1727,31 +1892,40 @@
         <v>13144567481</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
       <c r="I13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="N13" s="1">
         <v>1</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1759,22 +1933,28 @@
         <v>18612854599</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="N14" s="1">
         <v>1</v>
@@ -1785,31 +1965,46 @@
         <v>17109324121</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="G15" s="1">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="N15" s="1">
         <v>1</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1817,28 +2012,37 @@
         <v>17109324209</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="N16" s="1">
         <v>1</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1846,31 +2050,40 @@
         <v>17109324122</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="N17" s="1">
         <v>1</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1878,31 +2091,40 @@
         <v>17109324206</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="N18" s="1">
         <v>1</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1910,31 +2132,40 @@
         <v>13263543443</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="N19" s="1">
         <v>1</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1942,31 +2173,46 @@
         <v>18646100441</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>138</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="N20" s="1">
         <v>1</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1974,25 +2220,34 @@
         <v>16739465448</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="N21" s="1">
         <v>1</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2000,13 +2255,31 @@
         <v>13031043509</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="F22" s="1">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1">
+        <v>16</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="N22" s="1">
         <v>1</v>
@@ -2017,13 +2290,25 @@
         <v>13584306628</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="N23" s="1">
         <v>1</v>
@@ -2034,28 +2319,46 @@
         <v>18866478544</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>62</v>
+      <c r="F24" s="1">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="N24" s="1">
         <v>1</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2063,13 +2366,34 @@
         <v>19920198790</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="1">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1830</v>
+      </c>
+      <c r="H25" s="1">
+        <v>11</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
+      </c>
+      <c r="K25" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="N25" s="1">
         <v>1</v>
@@ -2080,25 +2404,37 @@
         <v>17134658143</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>12</v>
+        <v>88</v>
+      </c>
+      <c r="K26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="N26" s="1">
         <v>1</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2106,14 +2442,26 @@
         <v>17134659293</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="3"/>
+      <c r="E27" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="I27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K27" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="N27" s="1">
         <v>1</v>
@@ -2124,19 +2472,31 @@
         <v>17134659387</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="N28" s="1">
         <v>1</v>
@@ -2147,13 +2507,25 @@
         <v>17134658101</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K29" t="s">
+        <v>81</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="N29" s="1">
         <v>1</v>
@@ -2164,19 +2536,31 @@
         <v>17048774575</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="N30" s="1">
         <v>1</v>
@@ -2187,13 +2571,22 @@
         <v>16535842201</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K31" t="s">
+        <v>81</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="N31" s="1">
         <v>1</v>
@@ -2204,13 +2597,22 @@
         <v>16535842245</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K32" t="s">
+        <v>81</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="N32" s="1">
         <v>1</v>
@@ -2221,13 +2623,22 @@
         <v>16535842204</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K33" t="s">
+        <v>81</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="N33" s="1">
         <v>1</v>
@@ -2238,13 +2649,25 @@
         <v>16535842210</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K34" t="s">
+        <v>81</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="N34" s="1">
         <v>1</v>
@@ -2252,7 +2675,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="K1 J9:K9 K13:K14 J1:J1048576">
+  <conditionalFormatting sqref="K1 J9:K9 K13:K24 J1:J1048576">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -2270,8 +2693,11 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C30" r:id="rId1" xr:uid="{E43BCF13-163D-49D4-9CA2-12750B5C2D59}"/>
+    <hyperlink ref="C19" r:id="rId2" xr:uid="{02A4E45F-A708-4156-8D2B-A7B65944E9D5}"/>
+    <hyperlink ref="C17" r:id="rId3" xr:uid="{92556ABB-2C61-4487-9FF9-C13770D292A7}"/>
+    <hyperlink ref="C26" r:id="rId4" xr:uid="{424E3608-4D48-4E71-9D9D-EE83E87EB2E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
--- a/WebBrowser/smzdm.xlsx
+++ b/WebBrowser/smzdm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\smzdm\WebBrowser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F950F656-9040-42E6-98C9-FD1DE19B3B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F72890A-62DF-4F64-A8BD-DAC44251CBC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smzdm" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="130">
   <si>
     <t>phone</t>
   </si>
@@ -299,9 +297,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>200-209</t>
-  </si>
-  <si>
     <t>95-105</t>
   </si>
   <si>
@@ -356,9 +351,6 @@
     <t>230-240</t>
   </si>
   <si>
-    <t>230-236</t>
-  </si>
-  <si>
     <t>231-240</t>
   </si>
   <si>
@@ -377,9 +369,6 @@
     <t>ZedTheBlade</t>
   </si>
   <si>
-    <t>291-300</t>
-  </si>
-  <si>
     <t>60-70</t>
   </si>
   <si>
@@ -414,6 +403,21 @@
   </si>
   <si>
     <t>81-88</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>87-95</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t>81-87</t>
+  </si>
+  <si>
+    <t>67-77</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +1355,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,7 +1463,7 @@
         <v>79</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N2" s="1">
         <v>1</v>
@@ -1506,7 +1510,7 @@
         <v>82</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N3" s="1">
         <v>1</v>
@@ -1550,7 +1554,7 @@
         <v>85</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
@@ -1594,7 +1598,7 @@
         <v>82</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
@@ -1638,7 +1642,7 @@
         <v>79</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
@@ -1679,7 +1683,7 @@
         <v>82</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
@@ -1711,7 +1715,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
         <v>81</v>
@@ -1720,7 +1724,7 @@
         <v>79</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
@@ -1767,7 +1771,7 @@
         <v>82</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
@@ -1808,7 +1812,7 @@
         <v>85</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
@@ -1837,7 +1841,7 @@
         <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
         <v>81</v>
@@ -1846,7 +1850,7 @@
         <v>79</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
@@ -1872,16 +1876,16 @@
         <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
         <v>81</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
@@ -1910,16 +1914,16 @@
         <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N13" s="1">
         <v>1</v>
@@ -1954,7 +1958,7 @@
         <v>79</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="N14" s="1">
         <v>1</v>
@@ -1989,16 +1993,16 @@
         <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="N15" s="1">
         <v>1</v>
@@ -2036,7 +2040,7 @@
         <v>79</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N16" s="1">
         <v>1</v>
@@ -2077,7 +2081,7 @@
         <v>82</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N17" s="1">
         <v>1</v>
@@ -2118,7 +2122,7 @@
         <v>79</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N18" s="1">
         <v>1</v>
@@ -2159,7 +2163,7 @@
         <v>79</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N19" s="1">
         <v>1</v>
@@ -2206,7 +2210,7 @@
         <v>82</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N20" s="1">
         <v>1</v>
@@ -2241,7 +2245,7 @@
         <v>79</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N21" s="1">
         <v>1</v>
@@ -2279,7 +2283,7 @@
         <v>82</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N22" s="1">
         <v>1</v>
@@ -2293,7 +2297,7 @@
         <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>12</v>
@@ -2305,10 +2309,10 @@
         <v>81</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N23" s="1">
         <v>1</v>
@@ -2349,10 +2353,10 @@
         <v>81</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N24" s="1">
         <v>1</v>
@@ -2369,7 +2373,7 @@
         <v>62</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F25" s="1">
         <v>15</v>
@@ -2393,7 +2397,7 @@
         <v>79</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N25" s="1">
         <v>1</v>
@@ -2413,13 +2417,13 @@
         <v>63</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s">
         <v>81</v>
@@ -2428,7 +2432,7 @@
         <v>82</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N26" s="1">
         <v>1</v>
@@ -2446,7 +2450,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="E27" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>12</v>
@@ -2461,7 +2465,7 @@
         <v>79</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N27" s="1">
         <v>1</v>
@@ -2481,7 +2485,7 @@
         <v>63</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>12</v>
@@ -2496,7 +2500,7 @@
         <v>82</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N28" s="1">
         <v>1</v>
@@ -2510,22 +2514,22 @@
         <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>69</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s">
         <v>81</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="N29" s="1">
         <v>1</v>
@@ -2545,7 +2549,7 @@
         <v>66</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>69</v>
@@ -2560,7 +2564,7 @@
         <v>85</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N30" s="1">
         <v>1</v>
@@ -2574,7 +2578,7 @@
         <v>71</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>69</v>
@@ -2612,7 +2616,7 @@
         <v>79</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N32" s="1">
         <v>1</v>
@@ -2635,10 +2639,10 @@
         <v>81</v>
       </c>
       <c r="L33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="N33" s="1">
         <v>1</v>
@@ -2652,7 +2656,7 @@
         <v>74</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>69</v>
@@ -2667,7 +2671,7 @@
         <v>79</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N34" s="1">
         <v>1</v>

--- a/WebBrowser/smzdm.xlsx
+++ b/WebBrowser/smzdm.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\smzdm\WebBrowser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F950F656-9040-42E6-98C9-FD1DE19B3B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FB276D-1854-4E99-805B-A398581564B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smzdm" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="157">
   <si>
     <t>phone</t>
   </si>
@@ -218,9 +219,6 @@
     <t>2guotou</t>
   </si>
   <si>
-    <t>smzdm1123</t>
-  </si>
-  <si>
     <t>smzdm005e</t>
   </si>
   <si>
@@ -293,127 +291,219 @@
     <t>smzdm006@mail.com</t>
   </si>
   <si>
+    <t>Trader Joe</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Kaisa</t>
+  </si>
+  <si>
+    <t>Xayah</t>
+  </si>
+  <si>
+    <t>Kalista</t>
+  </si>
+  <si>
+    <t>Leona</t>
+  </si>
+  <si>
+    <t>Shyvana</t>
+  </si>
+  <si>
+    <t>Yasuo</t>
+  </si>
+  <si>
+    <t>ZedTheBlade</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>541630        963784        451140        </t>
+  </si>
+  <si>
+    <t>Unique Contributed Values </t>
+  </si>
+  <si>
+    <t>Entity Count                 </t>
+  </si>
+  <si>
+    <t>Unique Enriched Entities Count</t>
+  </si>
+  <si>
+    <t>                       541630       </t>
+  </si>
+  <si>
+    <t>963784 </t>
+  </si>
+  <si>
+    <t>Total Enriched
+Entity Count</t>
+  </si>
+  <si>
+    <t>Unique Contributed Values</t>
+  </si>
+  <si>
+    <t>Unique Enriched
+Entities Count</t>
+  </si>
+  <si>
+    <t>Triggering in 1Y        </t>
+  </si>
+  <si>
+    <t>Impression in 1Y</t>
+  </si>
+  <si>
+    <t>207,528        </t>
+  </si>
+  <si>
+    <t>1,007        2,501        61,885        535,935</t>
+  </si>
+  <si>
+    <t>Body        </t>
+  </si>
+  <si>
+    <t>ZeroTail</t>
+  </si>
+  <si>
+    <t>Tail        </t>
+  </si>
+  <si>
+    <t> 61,885</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>main_phone_number</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>tollfree</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>customer_service</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>No label</t>
+  </si>
+  <si>
+    <t>Gemini</t>
+  </si>
+  <si>
+    <t>Capricorn</t>
+  </si>
+  <si>
+    <t>smzdm2020</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>40-50</t>
+  </si>
+  <si>
+    <t>61-70</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>30-40</t>
+  </si>
+  <si>
+    <t>151-160</t>
+  </si>
+  <si>
+    <t>161-170</t>
+  </si>
+  <si>
+    <t>181-190</t>
+  </si>
+  <si>
+    <t>51-60</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>81-90</t>
+  </si>
+  <si>
+    <t>91-100</t>
+  </si>
+  <si>
+    <t>111-121</t>
+  </si>
+  <si>
+    <t>150-160</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>101-110</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>61-80</t>
+  </si>
+  <si>
     <t>u</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>200-209</t>
-  </si>
-  <si>
-    <t>95-105</t>
-  </si>
-  <si>
-    <t>suning</t>
-  </si>
-  <si>
-    <t>50-60</t>
-  </si>
-  <si>
-    <t>100-101</t>
-  </si>
-  <si>
-    <t>106-114</t>
-  </si>
-  <si>
-    <t>200-210</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>167-174</t>
+    <t>81-100</t>
+  </si>
+  <si>
+    <t>111-120</t>
+  </si>
+  <si>
+    <t>122-130</t>
+  </si>
+  <si>
+    <t>131-150</t>
+  </si>
+  <si>
+    <t>111-130</t>
+  </si>
+  <si>
+    <t>190-200</t>
   </si>
   <si>
     <t>171-180</t>
   </si>
   <si>
-    <t>Trader Joe</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>Kaisa</t>
-  </si>
-  <si>
-    <t>Xayah</t>
-  </si>
-  <si>
-    <t>Kalista</t>
-  </si>
-  <si>
-    <t>Leona</t>
-  </si>
-  <si>
-    <t>Shyvana</t>
-  </si>
-  <si>
-    <t>Yasuo</t>
-  </si>
-  <si>
-    <t>230-240</t>
-  </si>
-  <si>
-    <t>230-236</t>
-  </si>
-  <si>
-    <t>231-240</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>220-230</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>270-280</t>
-  </si>
-  <si>
-    <t>ZedTheBlade</t>
-  </si>
-  <si>
-    <t>291-300</t>
-  </si>
-  <si>
-    <t>60-70</t>
-  </si>
-  <si>
-    <t>381-390</t>
-  </si>
-  <si>
-    <t>380-390</t>
-  </si>
-  <si>
-    <t>55-65</t>
-  </si>
-  <si>
-    <t>61-66</t>
-  </si>
-  <si>
-    <t>66-72</t>
-  </si>
-  <si>
-    <t>67-73</t>
-  </si>
-  <si>
-    <t>73-80</t>
-  </si>
-  <si>
-    <t>63-66</t>
-  </si>
-  <si>
-    <t>75-80</t>
-  </si>
-  <si>
-    <t>81-86</t>
-  </si>
-  <si>
-    <t>81-88</t>
+    <t>91-110</t>
+  </si>
+  <si>
+    <t>101-120</t>
+  </si>
+  <si>
+    <t>221-236</t>
+  </si>
+  <si>
+    <t>237-250</t>
+  </si>
+  <si>
+    <t>121-130</t>
   </si>
 </sst>
 </file>
@@ -938,11 +1028,22 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -989,7 +1090,34 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1348,33 +1476,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="13.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.84375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.53515625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.3046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3046875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="6.53515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.15234375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3828125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.53515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.3828125" customWidth="1"/>
+    <col min="12" max="12" width="16.15234375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.15234375" style="1"/>
+    <col min="14" max="14" width="13.3046875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.3046875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1390,38 +1518,41 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>18604568194</v>
       </c>
@@ -1437,11 +1568,11 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
-        <v>10</v>
+      <c r="F2" s="8">
+        <v>13</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -1450,16 +1581,16 @@
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="N2" s="1">
         <v>1</v>
@@ -1467,15 +1598,19 @@
       <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="1">
+        <f>SUM(G2:G35)</f>
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>16571296540</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1484,11 +1619,11 @@
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1">
-        <v>7</v>
+      <c r="F3" s="8">
+        <v>11</v>
       </c>
       <c r="G3" s="1">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -1497,16 +1632,16 @@
         <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="N3" s="1">
         <v>1</v>
@@ -1515,11 +1650,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1528,11 +1663,11 @@
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1">
-        <v>7</v>
+      <c r="F4" s="8">
+        <v>9</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -1544,13 +1679,13 @@
         <v>16</v>
       </c>
       <c r="K4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
@@ -1559,7 +1694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1572,11 +1707,11 @@
       <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1">
-        <v>6</v>
+      <c r="F5" s="8">
+        <v>9</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -1585,16 +1720,16 @@
         <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
@@ -1603,7 +1738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1616,11 +1751,11 @@
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1">
-        <v>7</v>
+      <c r="F6" s="8">
+        <v>9</v>
       </c>
       <c r="G6" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -1632,13 +1767,13 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
@@ -1647,7 +1782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>15051954021</v>
       </c>
@@ -1657,39 +1792,39 @@
       <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1">
-        <v>13</v>
+      <c r="F7" s="8">
+        <v>17</v>
       </c>
       <c r="G7" s="1">
-        <v>1978</v>
+        <v>1587</v>
       </c>
       <c r="H7" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1698,11 +1833,11 @@
       <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="1">
-        <v>7</v>
+      <c r="F8" s="8">
+        <v>9</v>
       </c>
       <c r="G8" s="1">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -1711,16 +1846,16 @@
         <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
@@ -1729,7 +1864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>18646132274</v>
       </c>
@@ -1745,29 +1880,29 @@
       <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="1">
-        <v>11</v>
+      <c r="F9" s="8">
+        <v>13</v>
       </c>
       <c r="G9" s="1">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="H9" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>81</v>
+        <v>144</v>
+      </c>
+      <c r="K9" t="s">
+        <v>80</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
@@ -1776,7 +1911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>15601157998</v>
       </c>
@@ -1786,35 +1921,35 @@
       <c r="E10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="1">
-        <v>14</v>
+      <c r="F10" s="8">
+        <v>17</v>
       </c>
       <c r="G10" s="1">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>18545217785</v>
       </c>
@@ -1827,8 +1962,11 @@
       <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
+      <c r="F11" s="8">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1">
+        <v>62</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -1837,16 +1975,16 @@
         <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="M11" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
@@ -1855,15 +1993,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>15901115988</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
+      <c r="F12" s="8">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1">
+        <v>21</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1875,36 +2016,39 @@
         <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>13144567481</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
+      <c r="F13" s="8">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>12</v>
@@ -1912,14 +2056,14 @@
       <c r="J13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>81</v>
+      <c r="K13" t="s">
+        <v>80</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="N13" s="1">
         <v>1</v>
@@ -1928,7 +2072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>18612854599</v>
       </c>
@@ -1938,8 +2082,14 @@
       <c r="E14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
+      <c r="F14" s="8">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>12</v>
@@ -1947,20 +2097,20 @@
       <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>81</v>
+      <c r="K14" t="s">
+        <v>80</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="N14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>17109324121</v>
       </c>
@@ -1976,11 +2126,11 @@
       <c r="E15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="1">
-        <v>7</v>
+      <c r="F15" s="8">
+        <v>8</v>
       </c>
       <c r="G15" s="1">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -1991,14 +2141,14 @@
       <c r="J15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>81</v>
+      <c r="K15" t="s">
+        <v>80</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="N15" s="1">
         <v>1</v>
@@ -2007,7 +2157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>17109324209</v>
       </c>
@@ -2020,8 +2170,14 @@
       <c r="E16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
+      <c r="F16" s="8">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1">
+        <v>108</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>12</v>
@@ -2029,14 +2185,14 @@
       <c r="J16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>81</v>
+      <c r="K16" t="s">
+        <v>80</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="N16" s="1">
         <v>1</v>
@@ -2045,7 +2201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>17109324122</v>
       </c>
@@ -2061,8 +2217,14 @@
       <c r="E17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="1">
-        <v>2</v>
+      <c r="F17" s="8">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>12</v>
@@ -2070,14 +2232,14 @@
       <c r="J17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>81</v>
+      <c r="K17" t="s">
+        <v>80</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="N17" s="1">
         <v>1</v>
@@ -2086,7 +2248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17109324206</v>
       </c>
@@ -2102,8 +2264,14 @@
       <c r="E18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="1">
-        <v>1</v>
+      <c r="F18" s="8">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1">
+        <v>60</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>12</v>
@@ -2111,14 +2279,14 @@
       <c r="J18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>81</v>
+      <c r="K18" t="s">
+        <v>80</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="N18" s="1">
         <v>1</v>
@@ -2127,7 +2295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>13263543443</v>
       </c>
@@ -2143,8 +2311,14 @@
       <c r="E19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="1">
-        <v>1</v>
+      <c r="F19" s="8">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1">
+        <v>111</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>12</v>
@@ -2152,14 +2326,14 @@
       <c r="J19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="M19" s="1" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="N19" s="1">
         <v>1</v>
@@ -2168,7 +2342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18646100441</v>
       </c>
@@ -2184,11 +2358,11 @@
       <c r="E20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="1">
-        <v>6</v>
+      <c r="F20" s="8">
+        <v>8</v>
       </c>
       <c r="G20" s="1">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -2199,14 +2373,14 @@
       <c r="J20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>81</v>
+      <c r="K20" t="s">
+        <v>80</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="N20" s="1">
         <v>1</v>
@@ -2215,7 +2389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>16739465448</v>
       </c>
@@ -2228,20 +2402,29 @@
       <c r="E21" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="F21" s="8">
+        <v>7</v>
+      </c>
+      <c r="G21" s="1">
+        <v>48</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
       <c r="I21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>81</v>
+      <c r="K21" t="s">
+        <v>80</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="N21" s="1">
         <v>1</v>
@@ -2250,42 +2433,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>13031043509</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="1">
-        <v>8</v>
+      <c r="F22" s="8">
+        <v>13</v>
       </c>
       <c r="G22" s="1">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>81</v>
+        <v>140</v>
+      </c>
+      <c r="K22" t="s">
+        <v>80</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="N22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>13584306628</v>
       </c>
@@ -2293,7 +2476,16 @@
         <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
+      </c>
+      <c r="F23" s="8">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1">
+        <v>183</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>12</v>
@@ -2301,20 +2493,20 @@
       <c r="J23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>81</v>
+      <c r="K23" t="s">
+        <v>80</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="N23" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>18866478544</v>
       </c>
@@ -2330,8 +2522,8 @@
       <c r="E24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="1">
-        <v>6</v>
+      <c r="F24" s="8">
+        <v>8</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -2345,14 +2537,14 @@
       <c r="J24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>81</v>
+      <c r="K24" t="s">
+        <v>80</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="N24" s="1">
         <v>1</v>
@@ -2361,21 +2553,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>19920198790</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="1">
-        <v>15</v>
+        <v>87</v>
+      </c>
+      <c r="F25" s="8">
+        <v>19</v>
       </c>
       <c r="G25" s="1">
-        <v>1830</v>
+        <v>4979</v>
       </c>
       <c r="H25" s="1">
         <v>11</v>
@@ -2384,51 +2576,60 @@
         <v>12</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="K25" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="M25" s="1" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="N25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>17134658143</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
+      </c>
+      <c r="F26" s="8">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1">
+        <v>44</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="K26" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="M26" s="1" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="N26" s="1">
         <v>1</v>
@@ -2437,16 +2638,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>17134659293</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="3"/>
       <c r="E27" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
+      </c>
+      <c r="F27" s="8">
+        <v>7</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>12</v>
@@ -2455,219 +2665,291 @@
         <v>16</v>
       </c>
       <c r="K27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="N27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>17134659387</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
+      </c>
+      <c r="F28" s="8">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>16</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="K28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="N28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>17134658101</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="8">
+        <v>9</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="J29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="N29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>17048774575</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
+      </c>
+      <c r="F30" s="8">
+        <v>6</v>
+      </c>
+      <c r="G30" s="1">
+        <v>44</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="K30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="N30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>16535842201</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
+      </c>
+      <c r="F31" s="8">
+        <v>6</v>
+      </c>
+      <c r="G31" s="1">
+        <v>20</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="K31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="N31" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>16535842245</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="8">
+        <v>6</v>
+      </c>
+      <c r="G32" s="1">
+        <v>18</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K32" t="s">
+        <v>80</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="M32" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="N32" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>16535842204</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="8">
+        <v>6</v>
+      </c>
+      <c r="G33" s="1">
+        <v>31</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="K33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="N33" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>16535842210</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
+      </c>
+      <c r="F34" s="8">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1">
+        <v>18</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="N34" s="1">
         <v>1</v>
@@ -2675,20 +2957,31 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="K1 J9:K9 K13:K24 J1:J1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="K1 J1:J1048576">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"d"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"r"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>"&gt;10"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -2696,8 +2989,199 @@
     <hyperlink ref="C19" r:id="rId2" xr:uid="{02A4E45F-A708-4156-8D2B-A7B65944E9D5}"/>
     <hyperlink ref="C17" r:id="rId3" xr:uid="{92556ABB-2C61-4487-9FF9-C13770D292A7}"/>
     <hyperlink ref="C26" r:id="rId4" xr:uid="{424E3608-4D48-4E71-9D9D-EE83E87EB2E4}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{82D4E194-0A2E-4C99-9991-BB60E7B17054}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{B2F81B3A-0AA7-4E73-8F17-B91225DA60F5}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{CFFD585D-3650-43D9-A96B-6905F669EF2E}"/>
+    <hyperlink ref="C28" r:id="rId8" xr:uid="{E50208E2-EBDC-466B-9AD3-89AC72712E21}"/>
+    <hyperlink ref="C4" r:id="rId9" xr:uid="{6614DB07-CA6F-494B-851A-1FCAA822503E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B31D9C9-FBDD-489F-A711-82C2E7CB8620}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="A27:B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="58.3828125" customWidth="1"/>
+    <col min="2" max="2" width="19.69140625" customWidth="1"/>
+    <col min="3" max="3" width="50.84375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2">
+        <v>451140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>399321</v>
+      </c>
+      <c r="B11">
+        <v>704513</v>
+      </c>
+      <c r="C11">
+        <v>330927</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="6">
+        <v>162916455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2501</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="6">
+        <v>535935</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="7">
+        <v>284899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="7">
+        <v>189502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="7">
+        <v>36922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="7">
+        <v>27277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="7">
+        <v>9829</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="7">
+        <v>8373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="7">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="7">
+        <v>422531</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WebBrowser/smzdm.xlsx
+++ b/WebBrowser/smzdm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\smzdm\WebBrowser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiatwang\Documents\GitHub\smzdm\WebBrowser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FB276D-1854-4E99-805B-A398581564B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E499F5-B6AE-4302-892C-FADC658E569D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="155">
   <si>
     <t>phone</t>
   </si>
@@ -431,12 +431,6 @@
     <t>151-160</t>
   </si>
   <si>
-    <t>161-170</t>
-  </si>
-  <si>
-    <t>181-190</t>
-  </si>
-  <si>
     <t>51-60</t>
   </si>
   <si>
@@ -461,49 +455,49 @@
     <t>101-110</t>
   </si>
   <si>
+    <t>111-120</t>
+  </si>
+  <si>
+    <t>122-130</t>
+  </si>
+  <si>
+    <t>131-150</t>
+  </si>
+  <si>
+    <t>91-110</t>
+  </si>
+  <si>
+    <t>101-120</t>
+  </si>
+  <si>
+    <t>121-130</t>
+  </si>
+  <si>
+    <t>50-60</t>
+  </si>
+  <si>
+    <t>40-60</t>
+  </si>
+  <si>
+    <t>71-80</t>
+  </si>
+  <si>
+    <t>150-170</t>
+  </si>
+  <si>
     <t>y</t>
   </si>
   <si>
-    <t>61-80</t>
+    <t>200-220</t>
+  </si>
+  <si>
+    <t>30-45</t>
+  </si>
+  <si>
+    <t>35-42</t>
   </si>
   <si>
     <t>u</t>
-  </si>
-  <si>
-    <t>81-100</t>
-  </si>
-  <si>
-    <t>111-120</t>
-  </si>
-  <si>
-    <t>122-130</t>
-  </si>
-  <si>
-    <t>131-150</t>
-  </si>
-  <si>
-    <t>111-130</t>
-  </si>
-  <si>
-    <t>190-200</t>
-  </si>
-  <si>
-    <t>171-180</t>
-  </si>
-  <si>
-    <t>91-110</t>
-  </si>
-  <si>
-    <t>101-120</t>
-  </si>
-  <si>
-    <t>221-236</t>
-  </si>
-  <si>
-    <t>237-250</t>
-  </si>
-  <si>
-    <t>121-130</t>
   </si>
 </sst>
 </file>
@@ -1478,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1569,28 +1563,28 @@
         <v>11</v>
       </c>
       <c r="F2" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="K2" t="s">
         <v>80</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="N2" s="1">
         <v>1</v>
@@ -1600,7 +1594,7 @@
       </c>
       <c r="P2" s="1">
         <f>SUM(G2:G35)</f>
-        <v>8400</v>
+        <v>9858</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
@@ -1620,19 +1614,19 @@
         <v>15</v>
       </c>
       <c r="F3" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="K3" t="s">
         <v>80</v>
@@ -1641,7 +1635,7 @@
         <v>78</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N3" s="1">
         <v>1</v>
@@ -1664,28 +1658,28 @@
         <v>20</v>
       </c>
       <c r="F4" s="8">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="G4" s="1">
-        <v>158</v>
+        <v>807</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="K4" t="s">
         <v>80</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
@@ -1708,10 +1702,10 @@
         <v>22</v>
       </c>
       <c r="F5" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1">
-        <v>110</v>
+        <v>258</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -1729,7 +1723,7 @@
         <v>78</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
@@ -1755,7 +1749,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -1770,7 +1764,7 @@
         <v>80</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>127</v>
@@ -1793,10 +1787,10 @@
         <v>25</v>
       </c>
       <c r="F7" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1">
-        <v>1587</v>
+        <v>2509</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -1808,13 +1802,13 @@
         <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>81</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
@@ -1837,7 +1831,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="1">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -1855,7 +1849,7 @@
         <v>78</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
@@ -1887,13 +1881,13 @@
         <v>122</v>
       </c>
       <c r="H9" s="1">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
         <v>80</v>
@@ -1902,7 +1896,7 @@
         <v>84</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
@@ -1928,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>12</v>
@@ -1943,7 +1937,7 @@
         <v>78</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
@@ -1963,10 +1957,10 @@
         <v>34</v>
       </c>
       <c r="F11" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -1984,7 +1978,7 @@
         <v>81</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
@@ -2007,13 +2001,13 @@
         <v>21</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s">
         <v>80</v>
@@ -2048,22 +2042,22 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
         <v>80</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N13" s="1">
         <v>1</v>
@@ -2089,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>12</v>
@@ -2101,10 +2095,10 @@
         <v>80</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="N14" s="1">
         <v>1</v>
@@ -2133,7 +2127,7 @@
         <v>98</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>12</v>
@@ -2148,7 +2142,7 @@
         <v>78</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="N15" s="1">
         <v>1</v>
@@ -2177,7 +2171,7 @@
         <v>108</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>12</v>
@@ -2192,7 +2186,7 @@
         <v>78</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N16" s="1">
         <v>1</v>
@@ -2224,7 +2218,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>12</v>
@@ -2236,10 +2230,10 @@
         <v>80</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N17" s="1">
         <v>1</v>
@@ -2271,7 +2265,7 @@
         <v>60</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>12</v>
@@ -2286,7 +2280,7 @@
         <v>95</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N18" s="1">
         <v>1</v>
@@ -2318,7 +2312,7 @@
         <v>111</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>12</v>
@@ -2333,7 +2327,7 @@
         <v>81</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="N19" s="1">
         <v>1</v>
@@ -2365,7 +2359,7 @@
         <v>50</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>12</v>
@@ -2380,7 +2374,7 @@
         <v>78</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="N20" s="1">
         <v>1</v>
@@ -2409,7 +2403,7 @@
         <v>48</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>12</v>
@@ -2424,7 +2418,7 @@
         <v>78</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N21" s="1">
         <v>1</v>
@@ -2444,25 +2438,25 @@
         <v>13</v>
       </c>
       <c r="G22" s="1">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="H22" s="1">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="K22" t="s">
         <v>80</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="N22" s="1">
         <v>1</v>
@@ -2485,13 +2479,13 @@
         <v>183</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="K23" t="s">
         <v>80</v>
@@ -2500,7 +2494,7 @@
         <v>84</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N23" s="1">
         <v>1</v>
@@ -2529,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>12</v>
@@ -2544,7 +2538,7 @@
         <v>129</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N24" s="1">
         <v>1</v>
@@ -2570,13 +2564,13 @@
         <v>4979</v>
       </c>
       <c r="H25" s="1">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="K25" t="s">
         <v>80</v>
@@ -2585,7 +2579,7 @@
         <v>81</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="N25" s="1">
         <v>1</v>
@@ -2614,7 +2608,7 @@
         <v>44</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>12</v>
@@ -2626,10 +2620,10 @@
         <v>80</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="N26" s="1">
         <v>1</v>
@@ -2656,7 +2650,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>12</v>
@@ -2671,7 +2665,7 @@
         <v>78</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N27" s="1">
         <v>1</v>
@@ -2700,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="K28" t="s">
         <v>80</v>
@@ -2715,7 +2709,7 @@
         <v>84</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N28" s="1">
         <v>1</v>
@@ -2738,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>68</v>
@@ -2782,13 +2776,13 @@
         <v>44</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="K30" t="s">
         <v>80</v>
@@ -2820,13 +2814,13 @@
         <v>20</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="K31" t="s">
         <v>80</v>
@@ -2858,7 +2852,7 @@
         <v>18</v>
       </c>
       <c r="H32" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>68</v>
@@ -2870,10 +2864,10 @@
         <v>80</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="N32" s="1">
         <v>1</v>
@@ -2893,25 +2887,25 @@
         <v>6</v>
       </c>
       <c r="G33" s="1">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="H33" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="K33" t="s">
         <v>80</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="N33" s="1">
         <v>1</v>
@@ -2934,7 +2928,7 @@
         <v>18</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>68</v>

--- a/WebBrowser/smzdm.xlsx
+++ b/WebBrowser/smzdm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiatwang\Documents\GitHub\smzdm\WebBrowser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E499F5-B6AE-4302-892C-FADC658E569D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E655E5E6-976D-47E0-802E-8BAF6B5E841E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="153">
   <si>
     <t>phone</t>
   </si>
@@ -449,9 +449,6 @@
     <t>150-160</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
     <t>101-110</t>
   </si>
   <si>
@@ -485,19 +482,16 @@
     <t>150-170</t>
   </si>
   <si>
+    <t>200-220</t>
+  </si>
+  <si>
+    <t>30-45</t>
+  </si>
+  <si>
+    <t>35-42</t>
+  </si>
+  <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>200-220</t>
-  </si>
-  <si>
-    <t>30-45</t>
-  </si>
-  <si>
-    <t>35-42</t>
-  </si>
-  <si>
-    <t>u</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -1569,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
         <v>80</v>
@@ -1584,7 +1578,7 @@
         <v>133</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N2" s="1">
         <v>1</v>
@@ -1594,7 +1588,7 @@
       </c>
       <c r="P2" s="1">
         <f>SUM(G2:G35)</f>
-        <v>9858</v>
+        <v>9424</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
@@ -1620,13 +1614,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
         <v>80</v>
@@ -1635,7 +1629,7 @@
         <v>78</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N3" s="1">
         <v>1</v>
@@ -1658,19 +1652,19 @@
         <v>20</v>
       </c>
       <c r="F4" s="8">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1">
-        <v>807</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
         <v>80</v>
@@ -1679,7 +1673,7 @@
         <v>133</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
@@ -1708,7 +1702,7 @@
         <v>258</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>12</v>
@@ -1793,7 +1787,7 @@
         <v>2509</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>12</v>
@@ -1802,13 +1796,13 @@
         <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>81</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
@@ -1834,7 +1828,7 @@
         <v>61</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>12</v>
@@ -1896,7 +1890,7 @@
         <v>84</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
@@ -1916,13 +1910,13 @@
         <v>32</v>
       </c>
       <c r="F10" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>12</v>
@@ -1937,7 +1931,7 @@
         <v>78</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
@@ -1963,7 +1957,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>12</v>
@@ -1998,7 +1992,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <v>-1</v>
@@ -2007,7 +2001,7 @@
         <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="K12" t="s">
         <v>80</v>
@@ -2016,7 +2010,7 @@
         <v>95</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
@@ -2048,7 +2042,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s">
         <v>80</v>
@@ -2077,10 +2071,10 @@
         <v>38</v>
       </c>
       <c r="F14" s="8">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="H14" s="1">
         <v>-1</v>
@@ -2092,13 +2086,13 @@
         <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N14" s="1">
         <v>1</v>
@@ -2111,7 +2105,7 @@
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2142,7 +2136,7 @@
         <v>78</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N15" s="1">
         <v>1</v>
@@ -2158,7 +2152,7 @@
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2233,7 +2227,7 @@
         <v>81</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N17" s="1">
         <v>1</v>
@@ -2280,7 +2274,7 @@
         <v>95</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N18" s="1">
         <v>1</v>
@@ -2327,7 +2321,7 @@
         <v>81</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N19" s="1">
         <v>1</v>
@@ -2374,7 +2368,7 @@
         <v>78</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N20" s="1">
         <v>1</v>
@@ -2435,13 +2429,13 @@
         <v>17</v>
       </c>
       <c r="F22" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G22" s="1">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>12</v>
@@ -2456,7 +2450,7 @@
         <v>129</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N22" s="1">
         <v>1</v>
@@ -2473,19 +2467,19 @@
         <v>86</v>
       </c>
       <c r="F23" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" s="1">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="K23" t="s">
         <v>80</v>
@@ -2494,7 +2488,7 @@
         <v>84</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N23" s="1">
         <v>1</v>
@@ -2523,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>12</v>
@@ -2579,7 +2573,7 @@
         <v>81</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N25" s="1">
         <v>1</v>
@@ -2602,13 +2596,13 @@
         <v>88</v>
       </c>
       <c r="F26" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" s="1">
-        <v>44</v>
+        <v>276</v>
       </c>
       <c r="H26" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>12</v>
@@ -2644,13 +2638,13 @@
         <v>90</v>
       </c>
       <c r="F27" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G27" s="1">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="H27" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>12</v>
@@ -2665,7 +2659,7 @@
         <v>78</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N27" s="1">
         <v>1</v>
@@ -2729,10 +2723,10 @@
         <v>9</v>
       </c>
       <c r="G29" s="1">
+        <v>17</v>
+      </c>
+      <c r="H29" s="1">
         <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>-1</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>68</v>
@@ -2741,7 +2735,7 @@
         <v>16</v>
       </c>
       <c r="K29" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>78</v>
@@ -2770,10 +2764,10 @@
         <v>92</v>
       </c>
       <c r="F30" s="8">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="G30" s="1">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H30" s="1">
         <v>-1</v>
@@ -2785,7 +2779,7 @@
         <v>16</v>
       </c>
       <c r="K30" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>95</v>
@@ -2808,13 +2802,13 @@
         <v>93</v>
       </c>
       <c r="F31" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G31" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H31" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>68</v>
@@ -2823,7 +2817,7 @@
         <v>16</v>
       </c>
       <c r="K31" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>84</v>
@@ -2846,10 +2840,10 @@
         <v>123</v>
       </c>
       <c r="F32" s="8">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="G32" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H32" s="1">
         <v>-1</v>
@@ -2861,13 +2855,13 @@
         <v>16</v>
       </c>
       <c r="K32" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N32" s="1">
         <v>1</v>
@@ -2884,10 +2878,10 @@
         <v>124</v>
       </c>
       <c r="F33" s="8">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="G33" s="1">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="H33" s="1">
         <v>-1</v>
@@ -2899,13 +2893,13 @@
         <v>16</v>
       </c>
       <c r="K33" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>133</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N33" s="1">
         <v>1</v>
@@ -2925,10 +2919,10 @@
         <v>4</v>
       </c>
       <c r="G34" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>68</v>
@@ -2988,9 +2982,11 @@
     <hyperlink ref="C13" r:id="rId7" xr:uid="{CFFD585D-3650-43D9-A96B-6905F669EF2E}"/>
     <hyperlink ref="C28" r:id="rId8" xr:uid="{E50208E2-EBDC-466B-9AD3-89AC72712E21}"/>
     <hyperlink ref="C4" r:id="rId9" xr:uid="{6614DB07-CA6F-494B-851A-1FCAA822503E}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{B21964F5-83BC-4B79-81D5-A8920C47678F}"/>
+    <hyperlink ref="C16" r:id="rId11" xr:uid="{E6D3EF42-E361-4220-B904-9A19917FCE60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/WebBrowser/smzdm.xlsx
+++ b/WebBrowser/smzdm.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiatwang\Documents\GitHub\smzdm\WebBrowser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E655E5E6-976D-47E0-802E-8BAF6B5E841E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577632A6-9A85-4CCC-9E53-3EEFCFA05933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2263" yWindow="2263" windowWidth="16457" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smzdm" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="setting" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="137">
   <si>
     <t>phone</t>
   </si>
@@ -273,9 +273,6 @@
     <t>mode</t>
   </si>
   <si>
-    <t>smzdm_share</t>
-  </si>
-  <si>
     <t>computers</t>
   </si>
   <si>
@@ -321,89 +318,6 @@
     <t>mother</t>
   </si>
   <si>
-    <t>541630        963784        451140        </t>
-  </si>
-  <si>
-    <t>Unique Contributed Values </t>
-  </si>
-  <si>
-    <t>Entity Count                 </t>
-  </si>
-  <si>
-    <t>Unique Enriched Entities Count</t>
-  </si>
-  <si>
-    <t>                       541630       </t>
-  </si>
-  <si>
-    <t>963784 </t>
-  </si>
-  <si>
-    <t>Total Enriched
-Entity Count</t>
-  </si>
-  <si>
-    <t>Unique Contributed Values</t>
-  </si>
-  <si>
-    <t>Unique Enriched
-Entities Count</t>
-  </si>
-  <si>
-    <t>Triggering in 1Y        </t>
-  </si>
-  <si>
-    <t>Impression in 1Y</t>
-  </si>
-  <si>
-    <t>207,528        </t>
-  </si>
-  <si>
-    <t>1,007        2,501        61,885        535,935</t>
-  </si>
-  <si>
-    <t>Body        </t>
-  </si>
-  <si>
-    <t>ZeroTail</t>
-  </si>
-  <si>
-    <t>Tail        </t>
-  </si>
-  <si>
-    <t> 61,885</t>
-  </si>
-  <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>main_phone_number</t>
-  </si>
-  <si>
-    <t>fax</t>
-  </si>
-  <si>
-    <t>tollfree</t>
-  </si>
-  <si>
-    <t>office</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>customer_service</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>No label</t>
-  </si>
-  <si>
     <t>Gemini</t>
   </si>
   <si>
@@ -492,6 +406,42 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>exe</t>
+  </si>
+  <si>
+    <t>args</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>C:\Users\jiatwang\Documents\GitHub\smzdm\WebBrowser\bin\Release\SmzdmBot.exe</t>
+  </si>
+  <si>
+    <t>C:\Users\jiatwang\Documents\GitHub\smzdm\WebBrowser\bin\Release\arguments.txt</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>C:\Users\jiatwang\Documents\smzdm_config\status.txt</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>C:\Users\jiatwang\OneDrive\Release\command.json</t>
+  </si>
+  <si>
+    <t>C:\Users\jiatwang\OneDrive\Release\task.json</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -1016,21 +966,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -1466,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1477,7 +1417,7 @@
     <col min="3" max="3" width="20.84375" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.53515625" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.3046875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.3046875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.3046875" style="4" customWidth="1"/>
     <col min="7" max="7" width="6.53515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.15234375" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.3828125" style="1" hidden="1" customWidth="1"/>
@@ -1506,14 +1446,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>74</v>
@@ -1537,7 +1477,7 @@
         <v>7</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
@@ -1556,11 +1496,11 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="4">
         <v>15</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -1572,23 +1512,23 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P2" s="1">
         <f>SUM(G2:G35)</f>
-        <v>9424</v>
+        <v>7628</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
@@ -1607,11 +1547,11 @@
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8">
-        <v>12</v>
+      <c r="F3" s="4">
+        <v>13</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -1620,19 +1560,19 @@
         <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>16</v>
@@ -1651,7 +1591,7 @@
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <v>12</v>
       </c>
       <c r="G4" s="1">
@@ -1667,16 +1607,16 @@
         <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>16</v>
@@ -1695,14 +1635,14 @@
       <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <v>10</v>
       </c>
       <c r="G5" s="1">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>12</v>
@@ -1711,16 +1651,16 @@
         <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>16</v>
@@ -1739,11 +1679,11 @@
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="8">
-        <v>9</v>
+      <c r="F6" s="4">
+        <v>10</v>
       </c>
       <c r="G6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -1755,16 +1695,16 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>16</v>
@@ -1780,32 +1720,32 @@
       <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="8">
-        <v>18</v>
+      <c r="F7" s="4">
+        <v>19</v>
       </c>
       <c r="G7" s="1">
-        <v>2509</v>
+        <v>1352</v>
       </c>
       <c r="H7" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="K7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
@@ -1821,14 +1761,14 @@
       <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="4">
         <v>9</v>
       </c>
       <c r="G8" s="1">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>12</v>
@@ -1837,16 +1777,16 @@
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>16</v>
@@ -1868,14 +1808,14 @@
       <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="8">
-        <v>13</v>
+      <c r="F9" s="4">
+        <v>15</v>
       </c>
       <c r="G9" s="1">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
@@ -1884,16 +1824,16 @@
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>16</v>
@@ -1909,32 +1849,32 @@
       <c r="E10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="4">
         <v>18</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
@@ -1950,32 +1890,32 @@
       <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="4">
         <v>8</v>
       </c>
       <c r="G11" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="M11" s="1" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="N11" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>16</v>
@@ -1988,7 +1928,7 @@
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="4">
         <v>8</v>
       </c>
       <c r="G12" s="1">
@@ -2000,20 +1940,17 @@
       <c r="I12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="N12" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
@@ -2029,7 +1966,7 @@
       <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="4">
         <v>9</v>
       </c>
       <c r="G13" s="1">
@@ -2041,20 +1978,17 @@
       <c r="I13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="N13" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>16</v>
@@ -2070,7 +2004,7 @@
       <c r="E14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="4">
         <v>-1</v>
       </c>
       <c r="G14" s="1">
@@ -2082,20 +2016,17 @@
       <c r="I14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K14" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="N14" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
@@ -2114,7 +2045,7 @@
       <c r="E15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="4">
         <v>8</v>
       </c>
       <c r="G15" s="1">
@@ -2126,20 +2057,17 @@
       <c r="I15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="N15" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>16</v>
@@ -2158,32 +2086,29 @@
       <c r="E16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="8">
-        <v>8</v>
+      <c r="F16" s="4">
+        <v>9</v>
       </c>
       <c r="G16" s="1">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K16" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="N16" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>16</v>
@@ -2205,32 +2130,29 @@
       <c r="E17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="8">
-        <v>9</v>
+      <c r="F17" s="4">
+        <v>10</v>
       </c>
       <c r="G17" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H17" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K17" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="M17" s="1" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="N17" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>16</v>
@@ -2252,32 +2174,29 @@
       <c r="E18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="8">
-        <v>7</v>
+      <c r="F18" s="4">
+        <v>8</v>
       </c>
       <c r="G18" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K18" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="N18" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>16</v>
@@ -2299,7 +2218,7 @@
       <c r="E19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="4">
         <v>8</v>
       </c>
       <c r="G19" s="1">
@@ -2311,20 +2230,17 @@
       <c r="I19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K19" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="M19" s="1" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="N19" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>16</v>
@@ -2346,32 +2262,29 @@
       <c r="E20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="8">
-        <v>8</v>
+      <c r="F20" s="4">
+        <v>9</v>
       </c>
       <c r="G20" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K20" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="N20" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>16</v>
@@ -2390,32 +2303,29 @@
       <c r="E21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="8">
-        <v>7</v>
+      <c r="F21" s="4">
+        <v>8</v>
       </c>
       <c r="G21" s="1">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K21" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="N21" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>16</v>
@@ -2428,32 +2338,29 @@
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="4">
         <v>15</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K22" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="N22" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
@@ -2464,34 +2371,31 @@
         <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="8">
+        <v>85</v>
+      </c>
+      <c r="F23" s="4">
         <v>14</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K23" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="N23" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
@@ -2510,32 +2414,29 @@
       <c r="E24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="4">
         <v>8</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K24" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="N24" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>16</v>
@@ -2546,12 +2447,12 @@
         <v>19920198790</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="8">
+        <v>86</v>
+      </c>
+      <c r="F25" s="4">
         <v>19</v>
       </c>
       <c r="G25" s="1">
@@ -2563,20 +2464,17 @@
       <c r="I25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="M25" s="1" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="N25" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
@@ -2593,34 +2491,31 @@
         <v>62</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="8">
+        <v>87</v>
+      </c>
+      <c r="F26" s="4">
         <v>13</v>
       </c>
       <c r="G26" s="1">
         <v>276</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K26" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="N26" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>16</v>
@@ -2635,34 +2530,31 @@
       </c>
       <c r="C27" s="3"/>
       <c r="E27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="8">
+        <v>89</v>
+      </c>
+      <c r="F27" s="4">
         <v>8</v>
       </c>
       <c r="G27" s="1">
         <v>128</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K27" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="N27" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
@@ -2679,9 +2571,9 @@
         <v>62</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="8">
+        <v>88</v>
+      </c>
+      <c r="F28" s="4">
         <v>10</v>
       </c>
       <c r="G28" s="1">
@@ -2693,20 +2585,17 @@
       <c r="I28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K28" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="N28" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
@@ -2717,34 +2606,31 @@
         <v>67</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="8">
+        <v>90</v>
+      </c>
+      <c r="F29" s="4">
         <v>9</v>
       </c>
       <c r="G29" s="1">
         <v>17</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K29" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="N29" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
@@ -2755,40 +2641,37 @@
         <v>69</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="8">
-        <v>-1</v>
+        <v>91</v>
+      </c>
+      <c r="F30" s="4">
+        <v>7</v>
       </c>
       <c r="G30" s="1">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K30" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="N30" s="1">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
@@ -2799,34 +2682,31 @@
         <v>70</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="8">
-        <v>7</v>
+        <v>92</v>
+      </c>
+      <c r="F31" s="4">
+        <v>8</v>
       </c>
       <c r="G31" s="1">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K31" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="N31" s="1">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
@@ -2837,34 +2717,31 @@
         <v>71</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="8">
-        <v>-1</v>
+        <v>95</v>
+      </c>
+      <c r="F32" s="4">
+        <v>7</v>
       </c>
       <c r="G32" s="1">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="H32" s="1">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K32" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="N32" s="1">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
@@ -2875,34 +2752,31 @@
         <v>72</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="8">
-        <v>-1</v>
+        <v>96</v>
+      </c>
+      <c r="F33" s="4">
+        <v>8</v>
       </c>
       <c r="G33" s="1">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="H33" s="1">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K33" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="N33" s="1">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
@@ -2913,34 +2787,31 @@
         <v>73</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="8">
-        <v>4</v>
+        <v>93</v>
+      </c>
+      <c r="F34" s="4">
+        <v>5</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K34" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="N34" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2991,187 +2862,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B31D9C9-FBDD-489F-A711-82C2E7CB8620}">
-  <dimension ref="A1:D35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AAF4E6-C6D1-4021-8AB9-4700F188E587}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="A27:B35"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="58.3828125" customWidth="1"/>
-    <col min="2" max="2" width="19.69140625" customWidth="1"/>
-    <col min="3" max="3" width="50.84375" customWidth="1"/>
+    <col min="2" max="2" width="64.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>98</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>100</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2">
-        <v>451140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="5">
-        <v>399321</v>
-      </c>
-      <c r="B11">
-        <v>704513</v>
-      </c>
-      <c r="C11">
-        <v>330927</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="6">
-        <v>162916455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="6">
-        <v>2501</v>
-      </c>
-      <c r="C23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="6">
-        <v>535935</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="7">
-        <v>284899</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="7">
-        <v>189502</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="7">
-        <v>36922</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="7">
-        <v>27277</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="7">
-        <v>9829</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="7">
-        <v>8373</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="7">
-        <v>2535</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="7">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="7">
-        <v>422531</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>